--- a/financial_files/excel/FB.xlsx
+++ b/financial_files/excel/FB.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="financial_data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="financial_data_scraped" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="financial_data" displayName="financial_data" ref="A1:O111" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="financial_data" displayName="financial_data_scraped" ref="A1:O111" headerRowCount="1">
   <autoFilter ref="A1:O111"/>
   <tableColumns count="15">
     <tableColumn id="1" name="Category"/>

--- a/financial_files/excel/FB.xlsx
+++ b/financial_files/excel/FB.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="financial_data_scraped" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="financial_statement_api" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="rule1_results" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -156,6 +158,37 @@
     <tableColumn id="13" name="2018"/>
     <tableColumn id="14" name="2019"/>
     <tableColumn id="15" name="TTM"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="financial_statement_api" displayName="financial_statement_api" ref="A1:K23" headerRowCount="1">
+  <autoFilter ref="A1:K23"/>
+  <tableColumns count="11">
+    <tableColumn id="1" name="API Parameter"/>
+    <tableColumn id="2" name="2010"/>
+    <tableColumn id="3" name="2011"/>
+    <tableColumn id="4" name="2012"/>
+    <tableColumn id="5" name="2013"/>
+    <tableColumn id="6" name="2014"/>
+    <tableColumn id="7" name="2015"/>
+    <tableColumn id="8" name="2016"/>
+    <tableColumn id="9" name="2017"/>
+    <tableColumn id="10" name="2018"/>
+    <tableColumn id="11" name="2019"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="rule1_results" displayName="rule1_results" ref="A1:B55" headerRowCount="1">
+  <autoFilter ref="A1:B55"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Rule #1 Metric"/>
+    <tableColumn id="2" name="Value"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6605,4 +6638,1545 @@
     <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>API Parameter</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>revenue</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1974000000</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3711000000</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5089000000</v>
+      </c>
+      <c r="E2" t="n">
+        <v>7872000000</v>
+      </c>
+      <c r="F2" t="n">
+        <v>12466000000</v>
+      </c>
+      <c r="G2" t="n">
+        <v>17928000000</v>
+      </c>
+      <c r="H2" t="n">
+        <v>27638000000</v>
+      </c>
+      <c r="I2" t="n">
+        <v>40653000000</v>
+      </c>
+      <c r="J2" t="n">
+        <v>55838000000</v>
+      </c>
+      <c r="K2" t="n">
+        <v>70697000000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>operating_income</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1032000000</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1756000000</v>
+      </c>
+      <c r="D3" t="n">
+        <v>538000000</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2804000000</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4994000000</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6225000000</v>
+      </c>
+      <c r="H3" t="n">
+        <v>12427000000</v>
+      </c>
+      <c r="I3" t="n">
+        <v>20203000000</v>
+      </c>
+      <c r="J3" t="n">
+        <v>24913000000</v>
+      </c>
+      <c r="K3" t="n">
+        <v>23986000000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>pretax_income</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1008000000</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1695000000</v>
+      </c>
+      <c r="D4" t="n">
+        <v>494000000</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2754000000</v>
+      </c>
+      <c r="F4" t="n">
+        <v>4910000000</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6194000000</v>
+      </c>
+      <c r="H4" t="n">
+        <v>12518000000</v>
+      </c>
+      <c r="I4" t="n">
+        <v>20594000000</v>
+      </c>
+      <c r="J4" t="n">
+        <v>25361000000</v>
+      </c>
+      <c r="K4" t="n">
+        <v>24812000000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>income_tax</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-402000000</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-695000000</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-441000000</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-1254000000</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-1970000000</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-2506000000</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-2301000000</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-4660000000</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-3249000000</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-6327000000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>eps_diluted</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="J6" t="n">
+        <v>7.57</v>
+      </c>
+      <c r="K6" t="n">
+        <v>6.43</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>shares_diluted</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2361000000</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2361000000</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2166000000</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2517000000</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2664000000</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2853000000</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2925000000</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2956000000</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2921000000</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2876000000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>total_assets</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2990000000</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6331000000</v>
+      </c>
+      <c r="D8" t="n">
+        <v>15103000000</v>
+      </c>
+      <c r="E8" t="n">
+        <v>17895000000</v>
+      </c>
+      <c r="F8" t="n">
+        <v>39966000000</v>
+      </c>
+      <c r="G8" t="n">
+        <v>49407000000</v>
+      </c>
+      <c r="H8" t="n">
+        <v>64961000000</v>
+      </c>
+      <c r="I8" t="n">
+        <v>84524000000</v>
+      </c>
+      <c r="J8" t="n">
+        <v>97334000000</v>
+      </c>
+      <c r="K8" t="n">
+        <v>133376000000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>st_debt</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>201000000</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>500000000</v>
+      </c>
+      <c r="K9" t="n">
+        <v>277000000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>lt_debt</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>250000000</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1500000000</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>total_equity</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2162000000</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4899000000</v>
+      </c>
+      <c r="D11" t="n">
+        <v>11755000000</v>
+      </c>
+      <c r="E11" t="n">
+        <v>15470000000</v>
+      </c>
+      <c r="F11" t="n">
+        <v>36096000000</v>
+      </c>
+      <c r="G11" t="n">
+        <v>44218000000</v>
+      </c>
+      <c r="H11" t="n">
+        <v>59194000000</v>
+      </c>
+      <c r="I11" t="n">
+        <v>74347000000</v>
+      </c>
+      <c r="J11" t="n">
+        <v>84127000000</v>
+      </c>
+      <c r="K11" t="n">
+        <v>101054000000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>cf_cfo</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>698000000</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1549000000</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1612000000</v>
+      </c>
+      <c r="E12" t="n">
+        <v>4222000000</v>
+      </c>
+      <c r="F12" t="n">
+        <v>7326000000</v>
+      </c>
+      <c r="G12" t="n">
+        <v>10320000000</v>
+      </c>
+      <c r="H12" t="n">
+        <v>16108000000</v>
+      </c>
+      <c r="I12" t="n">
+        <v>24216000000</v>
+      </c>
+      <c r="J12" t="n">
+        <v>29274000000</v>
+      </c>
+      <c r="K12" t="n">
+        <v>36314000000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>cfi_ppe_net</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-293000000</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-606000000</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-1235000000</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-1362000000</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-1831000000</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-2523000000</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-4491000000</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-6733000000</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-13915000000</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-15102000000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>roic</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4415</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.0069</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.1263</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.1327</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.1031</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.2272</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.2734</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.3139</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.2221</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>revenue_growth</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8799</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.3713</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.5468</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.5835</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.4381</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.5416</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.4709</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.3735</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.2661</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>eps_diluted_growth</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.847</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-0.9681</v>
+      </c>
+      <c r="E16" t="n">
+        <v>59</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.8333</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.1727</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1.7054</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.5444</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.4044</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-0.1505</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>total_equity_growth</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.2659</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.3994</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.316</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1.3332</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.3386</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.2559</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.1315</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.2012</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>cfo_growth</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.2191</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.0406</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1.6191</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.7351</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.4086</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.5608</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.5033</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.2088</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.2404</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>fcf_growth</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.3283</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-0.6002</v>
+      </c>
+      <c r="E19" t="n">
+        <v>6.5862</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.9213</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.4189</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.4899</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.5049</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-0.1214</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.381</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>fcf</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>405000000</v>
+      </c>
+      <c r="C20" t="n">
+        <v>943000000</v>
+      </c>
+      <c r="D20" t="n">
+        <v>377000000</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2860000000</v>
+      </c>
+      <c r="F20" t="n">
+        <v>5495000000</v>
+      </c>
+      <c r="G20" t="n">
+        <v>7797000000</v>
+      </c>
+      <c r="H20" t="n">
+        <v>11617000000</v>
+      </c>
+      <c r="I20" t="n">
+        <v>17483000000</v>
+      </c>
+      <c r="J20" t="n">
+        <v>15359000000</v>
+      </c>
+      <c r="K20" t="n">
+        <v>21212000000</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>book_value_per_share</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.6552</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.8144</v>
+      </c>
+      <c r="D21" t="n">
+        <v>5.427</v>
+      </c>
+      <c r="E21" t="n">
+        <v>6.1462</v>
+      </c>
+      <c r="F21" t="n">
+        <v>13.5495</v>
+      </c>
+      <c r="G21" t="n">
+        <v>15.4987</v>
+      </c>
+      <c r="H21" t="n">
+        <v>20.2372</v>
+      </c>
+      <c r="I21" t="n">
+        <v>25.1512</v>
+      </c>
+      <c r="J21" t="n">
+        <v>28.8007</v>
+      </c>
+      <c r="K21" t="n">
+        <v>35.1369</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>market_cap</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>63142640000</v>
+      </c>
+      <c r="E22" t="n">
+        <v>139193550000</v>
+      </c>
+      <c r="F22" t="n">
+        <v>216739560000</v>
+      </c>
+      <c r="G22" t="n">
+        <v>296606440000</v>
+      </c>
+      <c r="H22" t="n">
+        <v>332724600000</v>
+      </c>
+      <c r="I22" t="n">
+        <v>512792760000</v>
+      </c>
+      <c r="J22" t="n">
+        <v>374130860000</v>
+      </c>
+      <c r="K22" t="n">
+        <v>585373000000</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>price_to_earnings</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1191.3705</v>
+      </c>
+      <c r="E23" t="n">
+        <v>92.7957</v>
+      </c>
+      <c r="F23" t="n">
+        <v>73.7209</v>
+      </c>
+      <c r="G23" t="n">
+        <v>80.4247</v>
+      </c>
+      <c r="H23" t="n">
+        <v>32.5657</v>
+      </c>
+      <c r="I23" t="n">
+        <v>32.1822</v>
+      </c>
+      <c r="J23" t="n">
+        <v>16.9198</v>
+      </c>
+      <c r="K23" t="n">
+        <v>31.6674</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Rule #1 Metric</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ROIC - 10-year</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>15.53%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ROIC - 5-year</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>17.96%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ROIC - 3-year</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>21.44%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ROIC - 1-year</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>17.63%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ROIC QuickFS - 10-year</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>18.47%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ROIC QuickFS - 5-year</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>22.79%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ROIC QuickFS - 3-year</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>26.98%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ROIC QuickFS - 1-year</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>22.21%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Equity Growth Rate - 9-year</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>55.65%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Equity Growth Rate - 5-year</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>21.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Equity Growth Rate - 3-year</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>20.19%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Equity Growth Rate - 1-year</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>22.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>EPS Growth Rate - 9-year</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>49.73%</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>EPS Growth Rate - 5-year</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>42.35%</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>EPS Growth Rate - 3-year</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>22.59%</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>EPS Growth Rate - 1-year</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>-15.06%</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Sales Growth Rate - 9-year</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>48.82%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Sales Growth Rate - 5-year</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>41.49%</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Sales Growth Rate - 3-year</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>36.76%</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Sales Growth Rate - 1-year</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>26.61%</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>FCF Growth Rate - 9-year</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>55.24%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>FCF Growth Rate - 5-year</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>31.02%</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>FCF Growth Rate - 3-year</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>22.23%</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>FCF Growth Rate - 1-year</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>38.11%</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>OCF Growth Rate - 9-year</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>55.13%</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>OCF Growth Rate - 5-year</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>37.73%</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>OCF Growth Rate - 3-year</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>31.12%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>OCF Growth Rate - 1-year</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>24.05%</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Debt - Current Long-Term Debt</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Debt - Payoff Possible</t>
+        </is>
+      </c>
+      <c r="B31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>current_eps</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>8.778000477267637</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>analyst_growth_rate</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.166</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>equity_growth_rate</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.2970948945635585</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>eps_growth_rate</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.166</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>future_eps</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>40.77379211612518</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>average_historical_pe</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>155.16469</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>default_pe</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>33.2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>future_pe</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>33.2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>future_market_price</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1353.689898255356</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>sticker_price</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>334.6114396803887</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>margin_of_safety</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>167.3057198401943</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>shortName</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Facebook, Inc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>symbol</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>FB</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>currency</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>market</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>us_market</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>exchange</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>NMS</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>sector</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Communication Services</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>industry</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Internet Content &amp; Information</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>website</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>http://investor.fb.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>marketCap</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>765477978112</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>volume</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>10118675</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>forwardPE</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>25.619638</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>previousClose</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>273.16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>